--- a/datasets/regionmapping.xlsx
+++ b/datasets/regionmapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amplifon-my.sharepoint.com/personal/alisa_aleksanyan_amplifon_com/Documents/Documentos/python_alisa/saturation/Saturation/Satapp/agenda_app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amplifon-my.sharepoint.com/personal/alisa_aleksanyan_amplifon_com/Documents/Documentos/python_alisa/saturation/Saturation/Satapp/agenda_app/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="94" documentId="8_{768DBE26-FC7C-4309-B178-49D8B4B62097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{817DA79A-72B6-4D60-B969-9C3BD136C97C}"/>
@@ -5061,8 +5061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCEC07A-D678-4EC2-A253-8C62F62EE907}">
   <dimension ref="A1:G680"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A656" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G680"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
